--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipC\InputData\indst\PPRiFUfERoIF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-us-wipA\InputData\indst\PPRiFUfERoIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>Industrial Sector Macroeconomic Indicators</t>
   </si>
@@ -2761,7 +2761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2963,6 +2965,9 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" s="16">
         <f>Results!B8</f>
         <v>0</v>
